--- a/Peningkatan 1 %.xlsx
+++ b/Peningkatan 1 %.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Competitive-Handbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734E69D8-531F-4631-AD22-8018897C4C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C5079-00AB-416F-9221-CA664BA74F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="528" windowWidth="19692" windowHeight="11352" xr2:uid="{814F786C-49FD-446C-8BBB-F2200A607D35}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Tanggal</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Aku menginstal CXXDroid, aplikasi yang membuatkau bisa menulis C++ di hp.</t>
+  </si>
+  <si>
+    <t>Aku mempelajari hal seputar bug, apa itu bug, jenis-jenis bug, solusi menyelesaikan bug, dan tips-trick memecahkan bug.</t>
+  </si>
+  <si>
+    <t>Aku mempelajari teknik-teknik menelusuri alur kerja progam, dengan penjelasan yang cukup mudah dipahami.</t>
+  </si>
+  <si>
+    <t>Ini akan meningkatkan kemampuanku memecahkan bug pada program yang aku buat</t>
+  </si>
+  <si>
+    <t>Meningkatkan kemampuan untuk membaca alur kerja propgram. Membuatku mampu memahami cara kerja program buatan orang lain, dan mengimplementasikanya dengan caraku sendiri. Selain itu, teknik membaca alur kerja program, meningkatkan kecepatanku untuk memahami bagaimana suatu kode program bekerja, dan bagaimana suatu problem seharusnya diselesaikan.</t>
   </si>
 </sst>
 </file>
@@ -706,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F61D918-CFA6-4278-BDE8-1934B507584E}">
-  <dimension ref="A2:D40"/>
+  <dimension ref="A2:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,24 +941,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f>DATE(2025,5,13)</f>
         <v>45790</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f>DATE(2025,5,16)</f>
+        <v>45793</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
